--- a/test/data/spreadsheets/ART-687-6-PSDYesFirstQuarter.xlsx
+++ b/test/data/spreadsheets/ART-687-6-PSDYesFirstQuarter.xlsx
@@ -309,12 +309,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="_-#,##0_-;_-\(#,##0\)_-;_-* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="166" formatCode="_-#,##0.00_-;_-\(#,##0.00\)_-;_-* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00;\(#,##0.00\);\-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_-#,##0_-;_-\(#,##0\)_-;_-* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="167" formatCode="_-#,##0.00_-;_-\(#,##0.00\)_-;_-* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;\(#,##0.00\);\-"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -452,94 +452,94 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,18 +548,18 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dezimal" xfId="2" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,9 +567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -607,7 +607,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -677,7 +677,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,7 +860,7 @@
       <selection sqref="A1:O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -1790,7 +1790,7 @@
       <selection activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1867,7 +1867,7 @@
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="36" t="s">
@@ -1908,13 +1908,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1947,20 +1947,20 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="41">
+        <f>Usage!J49</f>
         <v>40908</v>
       </c>
-      <c r="B4" s="42">
-        <v>0</v>
+      <c r="B4" s="43">
+        <f ca="1">Usage!L49</f>
+        <v>3046.875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="41">
-        <f>Usage!J49</f>
         <v>40908</v>
       </c>
       <c r="B5" s="43">
-        <f ca="1">Usage!L49</f>
-        <v>3046.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1973,38 +1973,30 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="41">
-        <v>40908</v>
+        <f>Usage!J50</f>
+        <v>41851</v>
       </c>
       <c r="B7" s="43">
-        <v>0</v>
+        <f ca="1">Usage!L50</f>
+        <v>3656.2499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="41">
-        <f>Usage!J50</f>
-        <v>41851</v>
+        <f>Usage!J51</f>
+        <v>42216</v>
       </c>
       <c r="B8" s="43">
-        <f ca="1">Usage!L50</f>
-        <v>3656.2499999999995</v>
+        <f ca="1">Usage!L51</f>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="41">
-        <f>Usage!J51</f>
-        <v>42216</v>
-      </c>
-      <c r="B9" s="43">
-        <f ca="1">Usage!L51</f>
-        <v>2437.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="41">
         <f>Usage!J52</f>
         <v>42582</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B9" s="43">
         <f ca="1">Usage!L52</f>
         <v>609.375</v>
       </c>

--- a/test/data/spreadsheets/ART-687-6-PSDYesFirstQuarter.xlsx
+++ b/test/data/spreadsheets/ART-687-6-PSDYesFirstQuarter.xlsx
@@ -1908,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1957,46 +1957,30 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="41">
-        <v>40908</v>
+        <f>Usage!J50</f>
+        <v>41851</v>
       </c>
       <c r="B5" s="43">
-        <v>0</v>
+        <f ca="1">Usage!L50</f>
+        <v>3656.2499999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="41">
-        <v>40908</v>
+        <f>Usage!J51</f>
+        <v>42216</v>
       </c>
       <c r="B6" s="43">
-        <v>0</v>
+        <f ca="1">Usage!L51</f>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="41">
-        <f>Usage!J50</f>
-        <v>41851</v>
-      </c>
-      <c r="B7" s="43">
-        <f ca="1">Usage!L50</f>
-        <v>3656.2499999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="41">
-        <f>Usage!J51</f>
-        <v>42216</v>
-      </c>
-      <c r="B8" s="43">
-        <f ca="1">Usage!L51</f>
-        <v>2437.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="41">
         <f>Usage!J52</f>
         <v>42582</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B7" s="43">
         <f ca="1">Usage!L52</f>
         <v>609.375</v>
       </c>
